--- a/DATA_goal/Junction_Flooding_236.xlsx
+++ b/DATA_goal/Junction_Flooding_236.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -469,7 +469,7 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
@@ -655,103 +655,103 @@
         <v>41668.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.53</v>
+        <v>0.45</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.33</v>
+        <v>0.63</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>80.7</v>
+        <v>8.07</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.82</v>
+        <v>0.78</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.98</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41668.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.32</v>
+        <v>2.13</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>46.6</v>
+        <v>4.66</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>38.1</v>
+        <v>3.81</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.24</v>
+        <v>1.62</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>60.59</v>
+        <v>6.06</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>25.93</v>
+        <v>2.59</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.81</v>
+        <v>1.88</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.69</v>
+        <v>2.37</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>250.19</v>
+        <v>25.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>47.23</v>
+        <v>4.72</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.46</v>
+        <v>3.15</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.5</v>
+        <v>3.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.56</v>
+        <v>1.26</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.29</v>
+        <v>2.03</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.31</v>
+        <v>5.53</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.25</v>
+        <v>0.93</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41668.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.18</v>
+        <v>3.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.38</v>
+        <v>3.04</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>53.52</v>
+        <v>5.35</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.65</v>
+        <v>2.06</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.73</v>
+        <v>1.37</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.91</v>
+        <v>1.59</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.73</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>197.55</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>37.68</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>12.42</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>25.14</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>26.63</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>48.88</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>7.31</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>15.31</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41668.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.66</v>
+        <v>2.17</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.28</v>
+        <v>1.63</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>47.29</v>
+        <v>4.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.8</v>
+        <v>3.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>66.23999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.27</v>
+        <v>2.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.12</v>
+        <v>1.21</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.02</v>
+        <v>1.9</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.17</v>
+        <v>2.02</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.14</v>
+        <v>2.41</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>252.49</v>
+        <v>25.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.73</v>
+        <v>4.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>32.04</v>
+        <v>3.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.82</v>
+        <v>3.28</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.75</v>
+        <v>1.37</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>60.24</v>
+        <v>6.02</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.16</v>
+        <v>0.92</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.53</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41668.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V6" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="R6" s="4" t="n">
+      <c r="W6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="Y6" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>37.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.4</v>
-      </c>
       <c r="Z6" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>17.33</v>
+        <v>1.73</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>3.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41668.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J7" s="4" t="n">
         <v>0.27</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>2.68</v>
-      </c>
       <c r="K7" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>47.59</v>
+        <v>4.76</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>3.24</v>
+        <v>0.32</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41668.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>21.53</v>
+        <v>2.15</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>46.96</v>
+        <v>4.7</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>38.62</v>
+        <v>3.86</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>16.75</v>
+        <v>1.68</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>61.27</v>
+        <v>6.13</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>26.09</v>
+        <v>2.61</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>17.42</v>
+        <v>1.74</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>18.87</v>
+        <v>1.89</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>19.99</v>
+        <v>2</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>24.02</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>250.18</v>
+        <v>25.02</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>47.2</v>
+        <v>4.72</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>31.81</v>
+        <v>3.18</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>30.91</v>
+        <v>3.09</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>13.7</v>
+        <v>1.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>19.95</v>
+        <v>1.99</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>55.53</v>
+        <v>5.55</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>19.43</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41668.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22.79</v>
+        <v>2.28</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>17.12</v>
+        <v>1.71</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>49.69</v>
+        <v>4.97</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>40.9</v>
+        <v>4.09</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.76</v>
+        <v>1.78</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>69.89</v>
+        <v>6.99</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.61</v>
+        <v>2.76</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>18.45</v>
+        <v>1.84</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>25.46</v>
+        <v>2.55</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>265.08</v>
+        <v>26.51</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>50.06</v>
+        <v>5.01</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>33.77</v>
+        <v>3.38</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.88</v>
+        <v>1.79</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.35</v>
+        <v>0.24</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>34.39</v>
+        <v>3.44</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.95</v>
+        <v>1.29</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>21.08</v>
+        <v>2.11</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>63.6</v>
+        <v>6.36</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.57</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41668.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="E10" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.08</v>
-      </c>
       <c r="N10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="R10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="S10" s="4" t="n">
+      <c r="T10" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="X10" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AA10" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB10" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC10" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD10" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.14</v>
-      </c>
       <c r="AE10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_236.xlsx
+++ b/DATA_goal/Junction_Flooding_236.xlsx
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -467,7 +467,7 @@
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -655,103 +655,103 @@
         <v>44917.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.07</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.18</v>
+        <v>51.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.83</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.46</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.15</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.14</v>
+        <v>21.39</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.71</v>
+        <v>27.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>28.45</v>
+        <v>284.51</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.34</v>
+        <v>53.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.56</v>
+        <v>35.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.2</v>
+        <v>31.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.11</v>
+        <v>21.12</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.73</v>
+        <v>57.29</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44917.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.38</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.17</v>
+        <v>51.66</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.28</v>
+        <v>42.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.35</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.31</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.05</v>
+        <v>20.53</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.68</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.82</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.88</v>
+        <v>278.82</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.26</v>
+        <v>52.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.52</v>
+        <v>35.24</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.45</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.54</v>
+        <v>35.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.16</v>
+        <v>21.59</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.64</v>
+        <v>66.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44917.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.35</v>
+        <v>23.54</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.24</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.08</v>
+        <v>50.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.21</v>
+        <v>42.08</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.28</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.9</v>
+        <v>18.97</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.29</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.48</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.62</v>
+        <v>26.2</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.5</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.31</v>
+        <v>273.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.15</v>
+        <v>51.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.46</v>
+        <v>34.62</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.36</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.4</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.5</v>
+        <v>34.96</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.36</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.69</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.59</v>
+        <v>65.87</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44917.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.21</v>
+        <v>32.1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.66</v>
+        <v>26.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.83</v>
+        <v>48.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.97</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.81</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.57</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.75</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>17.01</v>
+        <v>170.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.27</v>
+        <v>32.67</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.28</v>
+        <v>22.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.37</v>
+        <v>43.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_236.xlsx
+++ b/DATA_goal/Junction_Flooding_236.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44917.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>17.07</v>
+        <v>17.071</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.27</v>
+        <v>4.266</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>51.77</v>
+        <v>51.765</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>42.83</v>
+        <v>42.826</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>64.65000000000001</v>
+        <v>64.646</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.71</v>
+        <v>12.708</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.604</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>20.15</v>
+        <v>20.148</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>21.39</v>
+        <v>21.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.157</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>27.06</v>
+        <v>27.062</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.864</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.99</v>
+        <v>3.991</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.607</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>284.51</v>
+        <v>284.514</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>53.42</v>
+        <v>53.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>35.64</v>
+        <v>35.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.49</v>
+        <v>18.491</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.496</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.96</v>
+        <v>31.956</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.958</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>21.12</v>
+        <v>21.117</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>57.29</v>
+        <v>57.291</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44917.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>17.38</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.069</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>51.66</v>
+        <v>51.658</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.77</v>
+        <v>42.771</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>73.45999999999999</v>
+        <v>73.45699999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.76</v>
+        <v>12.763</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>19.31</v>
+        <v>19.309</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.53</v>
+        <v>20.534</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>21.75</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.04</v>
+        <v>6.039</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.68</v>
+        <v>26.681</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.82</v>
+        <v>15.816</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.73</v>
+        <v>1.725</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.286</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.82</v>
+        <v>278.824</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.59</v>
+        <v>52.594</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.24</v>
+        <v>35.238</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.66</v>
+        <v>18.664</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.45</v>
+        <v>2.447</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.35</v>
+        <v>35.351</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>13.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.05</v>
+        <v>16.055</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.59</v>
+        <v>21.593</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>66.44</v>
+        <v>66.44499999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.77</v>
+        <v>9.769</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.69</v>
+        <v>21.694</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>44917.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.54</v>
+        <v>23.541</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.24</v>
+        <v>17.242</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.56</v>
+        <v>1.562</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>50.82</v>
+        <v>50.821</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>42.08</v>
+        <v>42.079</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.53</v>
+        <v>18.526</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>72.81999999999999</v>
+        <v>72.822</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>12.61</v>
+        <v>12.606</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>18.97</v>
+        <v>18.969</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>20.29</v>
+        <v>20.287</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>21.48</v>
+        <v>21.479</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.92</v>
+        <v>5.918</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>26.2</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.5</v>
+        <v>15.496</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>1.16</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.019</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>273.1</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>51.54</v>
+        <v>51.544</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>34.62</v>
+        <v>34.619</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.36</v>
+        <v>18.363</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.4</v>
+        <v>2.398</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.96</v>
+        <v>34.958</v>
       </c>
       <c r="AA4" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.36</v>
+        <v>13.359</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.69</v>
+        <v>15.686</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>21.37</v>
+        <v>21.366</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>65.87</v>
+        <v>65.869</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.59</v>
+        <v>9.592000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>21.26</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44917.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.42</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_236.xlsx
+++ b/DATA_goal/Junction_Flooding_236.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44917.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.89</v>
+        <v>14.893</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.86</v>
+        <v>10.857</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.06</v>
+        <v>1.055</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.1</v>
+        <v>32.105</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>26.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.72</v>
+        <v>11.721</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.27</v>
+        <v>48.274</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.96</v>
+        <v>7.956</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.97</v>
+        <v>11.973</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.81</v>
+        <v>12.812</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.57</v>
+        <v>13.567</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.75</v>
+        <v>3.745</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.56</v>
+        <v>16.561</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>9.863</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.662</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.09</v>
+        <v>170.088</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.67</v>
+        <v>32.669</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.89</v>
+        <v>21.888</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.512</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>22.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.48</v>
+        <v>8.481</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.952999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.52</v>
+        <v>13.519</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.71</v>
+        <v>43.708</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.04</v>
+        <v>6.044</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44917.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>210.14</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.86</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>50.42</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_236.xlsx
+++ b/DATA_goal/Junction_Flooding_236.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44917.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.893</v>
+        <v>14.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.857</v>
+        <v>10.86</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.055</v>
+        <v>1.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.105</v>
+        <v>32.1</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>26.6</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.721</v>
+        <v>11.72</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>48.274</v>
+        <v>48.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.033</v>
+        <v>18.03</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.956</v>
+        <v>7.96</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.973</v>
+        <v>11.97</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.812</v>
+        <v>12.81</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.567</v>
+        <v>13.57</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.745</v>
+        <v>3.75</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.655</v>
+        <v>11.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.561</v>
+        <v>16.56</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.863</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.829</v>
+        <v>0.83</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.662</v>
+        <v>0.66</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>170.088</v>
+        <v>170.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.669</v>
+        <v>32.67</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.758</v>
+        <v>10.76</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.888</v>
+        <v>21.89</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.655</v>
+        <v>11.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.512</v>
+        <v>1.51</v>
       </c>
       <c r="Z5" s="4" t="n">
         <v>22.8</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.502000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.481</v>
+        <v>8.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.952999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.519</v>
+        <v>13.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>43.708</v>
+        <v>43.71</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.044</v>
+        <v>6.04</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44917.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.69</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.73</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.14</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.86</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.42</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.49</v>
       </c>
     </row>
   </sheetData>
